--- a/Utopia_SaveGame.xlsx
+++ b/Utopia_SaveGame.xlsx
@@ -5,14 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/Utopia-Creation-of-a-Nation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18520" yWindow="6300" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="20840" yWindow="8400" windowWidth="17220" windowHeight="15000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="General Data" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Alpha" sheetId="1" r:id="rId3"/>
+    <sheet name="Numeric" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>Position</t>
   </si>
@@ -132,13 +135,88 @@
   </si>
   <si>
     <t>Map Location Addresses</t>
+  </si>
+  <si>
+    <t>0x586</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>32bit  unsigned little endian</t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>Visible Range in Game/Max</t>
+  </si>
+  <si>
+    <t>11.MAP</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Padding of -4 at each side for valid build location</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>From Map in Game:</t>
+  </si>
+  <si>
+    <t>Tiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base Map </t>
+  </si>
+  <si>
+    <t>Hydroponic Food</t>
+  </si>
+  <si>
+    <t>(start zero)</t>
+  </si>
+  <si>
+    <t>From Gimp</t>
+  </si>
+  <si>
+    <t>From SaveGame</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Flux Pod (?)</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Hex Entry</t>
+  </si>
+  <si>
+    <t>3E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,16 +224,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -323,11 +422,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -347,6 +485,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,9 +770,1067 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>99</v>
+      </c>
+      <c r="C13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="22">
+        <f>HEX2DEC(K25)</f>
+        <v>62</v>
+      </c>
+      <c r="L23" s="22">
+        <f>HEX2DEC(L25)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>43</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>46</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>40</v>
+      </c>
+      <c r="G26">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>40</v>
+      </c>
+      <c r="G27">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>42</v>
+      </c>
+      <c r="G28">
+        <v>32</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>40</v>
+      </c>
+      <c r="G29">
+        <v>33</v>
+      </c>
+      <c r="H29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>46</v>
+      </c>
+      <c r="G30">
+        <v>33</v>
+      </c>
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>48</v>
+      </c>
+      <c r="G31">
+        <v>33</v>
+      </c>
+      <c r="H31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>40</v>
+      </c>
+      <c r="G32">
+        <v>34</v>
+      </c>
+      <c r="H32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>46</v>
+      </c>
+      <c r="G33">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>48</v>
+      </c>
+      <c r="G34">
+        <v>34</v>
+      </c>
+      <c r="H34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>40</v>
+      </c>
+      <c r="G35">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>41</v>
+      </c>
+      <c r="G36">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>42</v>
+      </c>
+      <c r="G37">
+        <v>35</v>
+      </c>
+      <c r="H37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>43</v>
+      </c>
+      <c r="G38">
+        <v>35</v>
+      </c>
+      <c r="H38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>44</v>
+      </c>
+      <c r="G39">
+        <v>35</v>
+      </c>
+      <c r="H39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>51</v>
+      </c>
+      <c r="G40">
+        <v>35</v>
+      </c>
+      <c r="H40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>46</v>
+      </c>
+      <c r="G41">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>48</v>
+      </c>
+      <c r="G42">
+        <v>37</v>
+      </c>
+      <c r="H42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>49</v>
+      </c>
+      <c r="G43">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>95</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CV75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="CV3" sqref="CV3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="99" width="3.1640625" style="20"/>
+    <col min="100" max="100" width="4.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="101" max="16384" width="3.1640625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A1" s="19">
+        <v>1</v>
+      </c>
+      <c r="B1" s="19">
+        <v>2</v>
+      </c>
+      <c r="C1" s="19">
+        <v>3</v>
+      </c>
+      <c r="D1" s="19">
+        <v>4</v>
+      </c>
+      <c r="E1" s="19">
+        <v>5</v>
+      </c>
+      <c r="F1" s="19">
+        <v>6</v>
+      </c>
+      <c r="G1" s="19">
+        <v>7</v>
+      </c>
+      <c r="H1" s="19">
+        <v>8</v>
+      </c>
+      <c r="I1" s="19">
+        <v>9</v>
+      </c>
+      <c r="J1" s="19">
+        <v>10</v>
+      </c>
+      <c r="K1" s="19">
+        <v>11</v>
+      </c>
+      <c r="L1" s="19">
+        <v>12</v>
+      </c>
+      <c r="M1" s="19">
+        <v>13</v>
+      </c>
+      <c r="N1" s="19">
+        <v>14</v>
+      </c>
+      <c r="O1" s="19">
+        <v>15</v>
+      </c>
+      <c r="P1" s="19">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="19">
+        <v>17</v>
+      </c>
+      <c r="R1" s="19">
+        <v>18</v>
+      </c>
+      <c r="S1" s="19">
+        <v>19</v>
+      </c>
+      <c r="T1" s="19">
+        <v>20</v>
+      </c>
+      <c r="U1" s="19">
+        <v>21</v>
+      </c>
+      <c r="V1" s="19">
+        <v>22</v>
+      </c>
+      <c r="W1" s="19">
+        <v>23</v>
+      </c>
+      <c r="X1" s="19">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="19">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="19">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="19">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="19">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="19">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="19">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="19">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="19">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="19">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="19">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="19">
+        <v>35</v>
+      </c>
+      <c r="AJ1" s="19">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="19">
+        <v>37</v>
+      </c>
+      <c r="AL1" s="19">
+        <v>38</v>
+      </c>
+      <c r="AM1" s="19">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="19">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="19">
+        <v>41</v>
+      </c>
+      <c r="AP1" s="19">
+        <v>42</v>
+      </c>
+      <c r="AQ1" s="19">
+        <v>43</v>
+      </c>
+      <c r="AR1" s="19">
+        <v>44</v>
+      </c>
+      <c r="AS1" s="19">
+        <v>45</v>
+      </c>
+      <c r="AT1" s="19">
+        <v>46</v>
+      </c>
+      <c r="AU1" s="19">
+        <v>47</v>
+      </c>
+      <c r="AV1" s="19">
+        <v>48</v>
+      </c>
+      <c r="AW1" s="19">
+        <v>49</v>
+      </c>
+      <c r="AX1" s="19">
+        <v>50</v>
+      </c>
+      <c r="AY1" s="19">
+        <v>51</v>
+      </c>
+      <c r="AZ1" s="19">
+        <v>52</v>
+      </c>
+      <c r="BA1" s="19">
+        <v>53</v>
+      </c>
+      <c r="BB1" s="19">
+        <v>54</v>
+      </c>
+      <c r="BC1" s="19">
+        <v>55</v>
+      </c>
+      <c r="BD1" s="19">
+        <v>56</v>
+      </c>
+      <c r="BE1" s="19">
+        <v>57</v>
+      </c>
+      <c r="BF1" s="19">
+        <v>58</v>
+      </c>
+      <c r="BG1" s="19">
+        <v>59</v>
+      </c>
+      <c r="BH1" s="19">
+        <v>60</v>
+      </c>
+      <c r="BI1" s="19">
+        <v>61</v>
+      </c>
+      <c r="BJ1" s="19">
+        <v>62</v>
+      </c>
+      <c r="BK1" s="19">
+        <v>63</v>
+      </c>
+      <c r="BL1" s="19">
+        <v>64</v>
+      </c>
+      <c r="BM1" s="19">
+        <v>65</v>
+      </c>
+      <c r="BN1" s="19">
+        <v>66</v>
+      </c>
+      <c r="BO1" s="19">
+        <v>67</v>
+      </c>
+      <c r="BP1" s="19">
+        <v>68</v>
+      </c>
+      <c r="BQ1" s="19">
+        <v>69</v>
+      </c>
+      <c r="BR1" s="19">
+        <v>70</v>
+      </c>
+      <c r="BS1" s="19">
+        <v>71</v>
+      </c>
+      <c r="BT1" s="19">
+        <v>72</v>
+      </c>
+      <c r="BU1" s="19">
+        <v>73</v>
+      </c>
+      <c r="BV1" s="19">
+        <v>74</v>
+      </c>
+      <c r="BW1" s="19">
+        <v>75</v>
+      </c>
+      <c r="BX1" s="19">
+        <v>76</v>
+      </c>
+      <c r="BY1" s="19">
+        <v>77</v>
+      </c>
+      <c r="BZ1" s="19">
+        <v>78</v>
+      </c>
+      <c r="CA1" s="19">
+        <v>79</v>
+      </c>
+      <c r="CB1" s="19">
+        <v>80</v>
+      </c>
+      <c r="CC1" s="19">
+        <v>81</v>
+      </c>
+      <c r="CD1" s="19">
+        <v>82</v>
+      </c>
+      <c r="CE1" s="19">
+        <v>83</v>
+      </c>
+      <c r="CF1" s="19">
+        <v>84</v>
+      </c>
+      <c r="CG1" s="19">
+        <v>85</v>
+      </c>
+      <c r="CH1" s="19">
+        <v>86</v>
+      </c>
+      <c r="CI1" s="19">
+        <v>87</v>
+      </c>
+      <c r="CJ1" s="19">
+        <v>88</v>
+      </c>
+      <c r="CK1" s="19">
+        <v>89</v>
+      </c>
+      <c r="CL1" s="19">
+        <v>90</v>
+      </c>
+      <c r="CM1" s="19">
+        <v>91</v>
+      </c>
+      <c r="CN1" s="19">
+        <v>92</v>
+      </c>
+      <c r="CO1" s="19">
+        <v>93</v>
+      </c>
+      <c r="CP1" s="19">
+        <v>94</v>
+      </c>
+      <c r="CQ1" s="19">
+        <v>95</v>
+      </c>
+      <c r="CR1" s="19">
+        <v>96</v>
+      </c>
+      <c r="CS1" s="19">
+        <v>97</v>
+      </c>
+      <c r="CT1" s="19">
+        <v>98</v>
+      </c>
+      <c r="CU1" s="19">
+        <v>99</v>
+      </c>
+      <c r="CV1" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="A16" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="19">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="19">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="19">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="19">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="19">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="19">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="19">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="19">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="19">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="19">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="19">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="19">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="19">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="19">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="19">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="19">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="19">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="19">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="19">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="19">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1265,4 +2469,69 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>1414</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2">
+        <v>999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>